--- a/EcWebApp/Content/modelos/RelFinanceiro.xlsx
+++ b/EcWebApp/Content/modelos/RelFinanceiro.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MOVIMENTAÇÕES</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>VALOR</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÕES</t>
   </si>
 </sst>
 </file>
@@ -142,19 +145,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -164,7 +162,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F507"/>
+  <dimension ref="B2:G507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,24 +498,25 @@
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:7" ht="23.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -519,2264 +526,2430 @@
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="2:6">
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="2:6">
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="5:6">
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-    </row>
-    <row r="106" spans="5:6">
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="5:6">
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="5:6">
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-    </row>
-    <row r="110" spans="5:6">
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="5:6">
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="5:6">
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="5:6">
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="5:6">
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="5:6">
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="5:6">
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="5:6">
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-    </row>
-    <row r="118" spans="5:6">
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="5:6">
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="5:6">
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="5:6">
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="5:6">
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-    </row>
-    <row r="123" spans="5:6">
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-    </row>
-    <row r="124" spans="5:6">
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="5:6">
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-    </row>
-    <row r="126" spans="5:6">
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="5:6">
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="5:6">
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="5:6">
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="5:6">
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="5:6">
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="5:6">
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="5:6">
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="5:6">
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="5:6">
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-    </row>
-    <row r="142" spans="5:6">
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-    </row>
-    <row r="143" spans="5:6">
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-    </row>
-    <row r="144" spans="5:6">
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-    </row>
-    <row r="145" spans="5:6">
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="5:6">
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="5:6">
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" spans="5:6">
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-    </row>
-    <row r="149" spans="5:6">
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-    </row>
-    <row r="150" spans="5:6">
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-    </row>
-    <row r="151" spans="5:6">
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-    </row>
-    <row r="152" spans="5:6">
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-    </row>
-    <row r="153" spans="5:6">
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-    </row>
-    <row r="154" spans="5:6">
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-    </row>
-    <row r="155" spans="5:6">
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-    </row>
-    <row r="156" spans="5:6">
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-    </row>
-    <row r="157" spans="5:6">
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-    </row>
-    <row r="158" spans="5:6">
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-    </row>
-    <row r="159" spans="5:6">
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-    </row>
-    <row r="160" spans="5:6">
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-    </row>
-    <row r="161" spans="5:6">
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-    </row>
-    <row r="162" spans="5:6">
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-    </row>
-    <row r="163" spans="5:6">
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-    </row>
-    <row r="165" spans="5:6">
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-    </row>
-    <row r="166" spans="5:6">
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-    </row>
-    <row r="167" spans="5:6">
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-    </row>
-    <row r="168" spans="5:6">
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-    </row>
-    <row r="169" spans="5:6">
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-    </row>
-    <row r="170" spans="5:6">
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-    </row>
-    <row r="171" spans="5:6">
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-    </row>
-    <row r="172" spans="5:6">
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-    </row>
-    <row r="173" spans="5:6">
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-    </row>
-    <row r="174" spans="5:6">
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-    </row>
-    <row r="175" spans="5:6">
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-    </row>
-    <row r="176" spans="5:6">
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="5:7">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="5:7">
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="5:7">
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="5:7">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="5:7">
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="5:7">
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="5:7">
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="5:7">
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="5:7">
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="5:7">
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="5:7">
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="5:7">
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="5:7">
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="5:7">
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="5:7">
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="5:7">
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="5:7">
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="5:7">
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="5:7">
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="5:7">
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="5:7">
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="5:7">
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="5:7">
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="5:7">
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="5:7">
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="5:7">
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="5:7">
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="5:7">
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="5:7">
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="5:7">
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="5:7">
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="5:7">
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="5:7">
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="5:7">
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="5:7">
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="5:7">
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="5:7">
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="5:7">
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="5:7">
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="5:7">
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="5:7">
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="5:7">
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="5:7">
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="5:7">
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="5:7">
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="5:7">
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="5:7">
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="5:7">
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="5:7">
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="5:7">
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="5:7">
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="5:7">
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="5:7">
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="5:7">
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="5:7">
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="5:7">
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="5:7">
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="5:7">
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="5:6">
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="5:6">
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="5:6">
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="5:6">
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="5:6">
-      <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
     </row>
     <row r="182" spans="5:6">
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="5:6">
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="5:6">
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="5:6">
-      <c r="E185" s="9"/>
-      <c r="F185" s="9"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
     </row>
     <row r="186" spans="5:6">
-      <c r="E186" s="9"/>
-      <c r="F186" s="9"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="5:6">
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
     </row>
     <row r="188" spans="5:6">
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="5:6">
-      <c r="E189" s="9"/>
-      <c r="F189" s="9"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
     </row>
     <row r="190" spans="5:6">
-      <c r="E190" s="9"/>
-      <c r="F190" s="9"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
     </row>
     <row r="191" spans="5:6">
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
     </row>
     <row r="192" spans="5:6">
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193" spans="5:6">
-      <c r="E193" s="9"/>
-      <c r="F193" s="9"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
     </row>
     <row r="194" spans="5:6">
-      <c r="E194" s="9"/>
-      <c r="F194" s="9"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="5:6">
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
     </row>
     <row r="196" spans="5:6">
-      <c r="E196" s="9"/>
-      <c r="F196" s="9"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="5:6">
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="5:6">
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="5:6">
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="5:6">
-      <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201" spans="5:6">
-      <c r="E201" s="9"/>
-      <c r="F201" s="9"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
     </row>
     <row r="202" spans="5:6">
-      <c r="E202" s="9"/>
-      <c r="F202" s="9"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
     </row>
     <row r="203" spans="5:6">
-      <c r="E203" s="9"/>
-      <c r="F203" s="9"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
     </row>
     <row r="204" spans="5:6">
-      <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
     </row>
     <row r="205" spans="5:6">
-      <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="206" spans="5:6">
-      <c r="E206" s="9"/>
-      <c r="F206" s="9"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="5:6">
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208" spans="5:6">
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="5:6">
-      <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
     </row>
     <row r="210" spans="5:6">
-      <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="5:6">
-      <c r="E211" s="9"/>
-      <c r="F211" s="9"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" spans="5:6">
-      <c r="E212" s="9"/>
-      <c r="F212" s="9"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
     </row>
     <row r="213" spans="5:6">
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
     </row>
     <row r="214" spans="5:6">
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
     </row>
     <row r="215" spans="5:6">
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
     </row>
     <row r="216" spans="5:6">
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
     </row>
     <row r="217" spans="5:6">
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="5:6">
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
     </row>
     <row r="219" spans="5:6">
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
     </row>
     <row r="220" spans="5:6">
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
     </row>
     <row r="221" spans="5:6">
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
     </row>
     <row r="222" spans="5:6">
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
     </row>
     <row r="223" spans="5:6">
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
     </row>
     <row r="224" spans="5:6">
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
     </row>
     <row r="225" spans="5:6">
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
     </row>
     <row r="226" spans="5:6">
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
     </row>
     <row r="227" spans="5:6">
-      <c r="E227" s="9"/>
-      <c r="F227" s="9"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
     </row>
     <row r="228" spans="5:6">
-      <c r="E228" s="9"/>
-      <c r="F228" s="9"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
     </row>
     <row r="229" spans="5:6">
-      <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
     </row>
     <row r="230" spans="5:6">
-      <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
     </row>
     <row r="231" spans="5:6">
-      <c r="E231" s="9"/>
-      <c r="F231" s="9"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
     </row>
     <row r="232" spans="5:6">
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
     </row>
     <row r="233" spans="5:6">
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
     </row>
     <row r="234" spans="5:6">
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
     </row>
     <row r="235" spans="5:6">
-      <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
     </row>
     <row r="236" spans="5:6">
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
     </row>
     <row r="237" spans="5:6">
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
     </row>
     <row r="238" spans="5:6">
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
     </row>
     <row r="239" spans="5:6">
-      <c r="E239" s="9"/>
-      <c r="F239" s="9"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
     </row>
     <row r="240" spans="5:6">
-      <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
     </row>
     <row r="241" spans="5:6">
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
     </row>
     <row r="242" spans="5:6">
-      <c r="E242" s="9"/>
-      <c r="F242" s="9"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
     </row>
     <row r="243" spans="5:6">
-      <c r="E243" s="9"/>
-      <c r="F243" s="9"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
     </row>
     <row r="244" spans="5:6">
-      <c r="E244" s="9"/>
-      <c r="F244" s="9"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
     </row>
     <row r="245" spans="5:6">
-      <c r="E245" s="9"/>
-      <c r="F245" s="9"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
     </row>
     <row r="246" spans="5:6">
-      <c r="E246" s="9"/>
-      <c r="F246" s="9"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
     </row>
     <row r="247" spans="5:6">
-      <c r="E247" s="9"/>
-      <c r="F247" s="9"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
     </row>
     <row r="248" spans="5:6">
-      <c r="E248" s="9"/>
-      <c r="F248" s="9"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
     </row>
     <row r="249" spans="5:6">
-      <c r="E249" s="9"/>
-      <c r="F249" s="9"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
     </row>
     <row r="250" spans="5:6">
-      <c r="E250" s="9"/>
-      <c r="F250" s="9"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
     </row>
     <row r="251" spans="5:6">
-      <c r="E251" s="9"/>
-      <c r="F251" s="9"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
     </row>
     <row r="252" spans="5:6">
-      <c r="E252" s="9"/>
-      <c r="F252" s="9"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
     </row>
     <row r="253" spans="5:6">
-      <c r="E253" s="9"/>
-      <c r="F253" s="9"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254" spans="5:6">
-      <c r="E254" s="9"/>
-      <c r="F254" s="9"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
     </row>
     <row r="255" spans="5:6">
-      <c r="E255" s="9"/>
-      <c r="F255" s="9"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
     </row>
     <row r="256" spans="5:6">
-      <c r="E256" s="9"/>
-      <c r="F256" s="9"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
     </row>
     <row r="257" spans="5:6">
-      <c r="E257" s="9"/>
-      <c r="F257" s="9"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
     </row>
     <row r="258" spans="5:6">
-      <c r="E258" s="9"/>
-      <c r="F258" s="9"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
     </row>
     <row r="259" spans="5:6">
-      <c r="E259" s="9"/>
-      <c r="F259" s="9"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
     </row>
     <row r="260" spans="5:6">
-      <c r="E260" s="9"/>
-      <c r="F260" s="9"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
     </row>
     <row r="261" spans="5:6">
-      <c r="E261" s="9"/>
-      <c r="F261" s="9"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
     </row>
     <row r="262" spans="5:6">
-      <c r="E262" s="9"/>
-      <c r="F262" s="9"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
     </row>
     <row r="263" spans="5:6">
-      <c r="E263" s="9"/>
-      <c r="F263" s="9"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
     </row>
     <row r="264" spans="5:6">
-      <c r="E264" s="9"/>
-      <c r="F264" s="9"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
     </row>
     <row r="265" spans="5:6">
-      <c r="E265" s="9"/>
-      <c r="F265" s="9"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
     </row>
     <row r="266" spans="5:6">
-      <c r="E266" s="9"/>
-      <c r="F266" s="9"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
     </row>
     <row r="267" spans="5:6">
-      <c r="E267" s="9"/>
-      <c r="F267" s="9"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
     </row>
     <row r="268" spans="5:6">
-      <c r="E268" s="9"/>
-      <c r="F268" s="9"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
     </row>
     <row r="269" spans="5:6">
-      <c r="E269" s="9"/>
-      <c r="F269" s="9"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
     </row>
     <row r="270" spans="5:6">
-      <c r="E270" s="9"/>
-      <c r="F270" s="9"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
     </row>
     <row r="271" spans="5:6">
-      <c r="E271" s="9"/>
-      <c r="F271" s="9"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
     </row>
     <row r="272" spans="5:6">
-      <c r="E272" s="9"/>
-      <c r="F272" s="9"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
     </row>
     <row r="273" spans="5:6">
-      <c r="E273" s="9"/>
-      <c r="F273" s="9"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
     </row>
     <row r="274" spans="5:6">
-      <c r="E274" s="9"/>
-      <c r="F274" s="9"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
     </row>
     <row r="275" spans="5:6">
-      <c r="E275" s="9"/>
-      <c r="F275" s="9"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
     </row>
     <row r="276" spans="5:6">
-      <c r="E276" s="9"/>
-      <c r="F276" s="9"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
     </row>
     <row r="277" spans="5:6">
-      <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
     </row>
     <row r="278" spans="5:6">
-      <c r="E278" s="9"/>
-      <c r="F278" s="9"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
     </row>
     <row r="279" spans="5:6">
-      <c r="E279" s="9"/>
-      <c r="F279" s="9"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
     </row>
     <row r="280" spans="5:6">
-      <c r="E280" s="9"/>
-      <c r="F280" s="9"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4"/>
     </row>
     <row r="281" spans="5:6">
-      <c r="E281" s="9"/>
-      <c r="F281" s="9"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
     </row>
     <row r="282" spans="5:6">
-      <c r="E282" s="9"/>
-      <c r="F282" s="9"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
     </row>
     <row r="283" spans="5:6">
-      <c r="E283" s="9"/>
-      <c r="F283" s="9"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4"/>
     </row>
     <row r="284" spans="5:6">
-      <c r="E284" s="9"/>
-      <c r="F284" s="9"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
     </row>
     <row r="285" spans="5:6">
-      <c r="E285" s="9"/>
-      <c r="F285" s="9"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
     </row>
     <row r="286" spans="5:6">
-      <c r="E286" s="9"/>
-      <c r="F286" s="9"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
     </row>
     <row r="287" spans="5:6">
-      <c r="E287" s="9"/>
-      <c r="F287" s="9"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
     </row>
     <row r="288" spans="5:6">
-      <c r="E288" s="9"/>
-      <c r="F288" s="9"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
     </row>
     <row r="289" spans="5:6">
-      <c r="E289" s="9"/>
-      <c r="F289" s="9"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
     </row>
     <row r="290" spans="5:6">
-      <c r="E290" s="9"/>
-      <c r="F290" s="9"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
     </row>
     <row r="291" spans="5:6">
-      <c r="E291" s="9"/>
-      <c r="F291" s="9"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
     </row>
     <row r="292" spans="5:6">
-      <c r="E292" s="9"/>
-      <c r="F292" s="9"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
     </row>
     <row r="293" spans="5:6">
-      <c r="E293" s="9"/>
-      <c r="F293" s="9"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
     </row>
     <row r="294" spans="5:6">
-      <c r="E294" s="9"/>
-      <c r="F294" s="9"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
     </row>
     <row r="295" spans="5:6">
-      <c r="E295" s="9"/>
-      <c r="F295" s="9"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
     </row>
     <row r="296" spans="5:6">
-      <c r="E296" s="9"/>
-      <c r="F296" s="9"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
     </row>
     <row r="297" spans="5:6">
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
     </row>
     <row r="298" spans="5:6">
-      <c r="E298" s="9"/>
-      <c r="F298" s="9"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
     </row>
     <row r="299" spans="5:6">
-      <c r="E299" s="9"/>
-      <c r="F299" s="9"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
     </row>
     <row r="300" spans="5:6">
-      <c r="E300" s="9"/>
-      <c r="F300" s="9"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
     </row>
     <row r="301" spans="5:6">
-      <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
     </row>
     <row r="302" spans="5:6">
-      <c r="E302" s="9"/>
-      <c r="F302" s="9"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
     </row>
     <row r="303" spans="5:6">
-      <c r="E303" s="9"/>
-      <c r="F303" s="9"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
     </row>
     <row r="304" spans="5:6">
-      <c r="E304" s="9"/>
-      <c r="F304" s="9"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
     </row>
     <row r="305" spans="5:6">
-      <c r="E305" s="9"/>
-      <c r="F305" s="9"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4"/>
     </row>
     <row r="306" spans="5:6">
-      <c r="E306" s="9"/>
-      <c r="F306" s="9"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4"/>
     </row>
     <row r="307" spans="5:6">
-      <c r="E307" s="9"/>
-      <c r="F307" s="9"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
     </row>
     <row r="308" spans="5:6">
-      <c r="E308" s="9"/>
-      <c r="F308" s="9"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
     </row>
     <row r="309" spans="5:6">
-      <c r="E309" s="9"/>
-      <c r="F309" s="9"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
     </row>
     <row r="310" spans="5:6">
-      <c r="E310" s="9"/>
-      <c r="F310" s="9"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
     </row>
     <row r="311" spans="5:6">
-      <c r="E311" s="9"/>
-      <c r="F311" s="9"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
     </row>
     <row r="312" spans="5:6">
-      <c r="E312" s="9"/>
-      <c r="F312" s="9"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
     </row>
     <row r="313" spans="5:6">
-      <c r="E313" s="9"/>
-      <c r="F313" s="9"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
     </row>
     <row r="314" spans="5:6">
-      <c r="E314" s="9"/>
-      <c r="F314" s="9"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
     </row>
     <row r="315" spans="5:6">
-      <c r="E315" s="9"/>
-      <c r="F315" s="9"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
     </row>
     <row r="316" spans="5:6">
-      <c r="E316" s="9"/>
-      <c r="F316" s="9"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
     </row>
     <row r="317" spans="5:6">
-      <c r="E317" s="9"/>
-      <c r="F317" s="9"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
     </row>
     <row r="318" spans="5:6">
-      <c r="E318" s="9"/>
-      <c r="F318" s="9"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
     </row>
     <row r="319" spans="5:6">
-      <c r="E319" s="9"/>
-      <c r="F319" s="9"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
     </row>
     <row r="320" spans="5:6">
-      <c r="E320" s="9"/>
-      <c r="F320" s="9"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
     </row>
     <row r="321" spans="5:6">
-      <c r="E321" s="9"/>
-      <c r="F321" s="9"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
     </row>
     <row r="322" spans="5:6">
-      <c r="E322" s="9"/>
-      <c r="F322" s="9"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
     </row>
     <row r="323" spans="5:6">
-      <c r="E323" s="9"/>
-      <c r="F323" s="9"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
     </row>
     <row r="324" spans="5:6">
-      <c r="E324" s="9"/>
-      <c r="F324" s="9"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
     </row>
     <row r="325" spans="5:6">
-      <c r="E325" s="9"/>
-      <c r="F325" s="9"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
     </row>
     <row r="326" spans="5:6">
-      <c r="E326" s="9"/>
-      <c r="F326" s="9"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
     </row>
     <row r="327" spans="5:6">
-      <c r="E327" s="9"/>
-      <c r="F327" s="9"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
     </row>
     <row r="328" spans="5:6">
-      <c r="E328" s="9"/>
-      <c r="F328" s="9"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
     </row>
     <row r="329" spans="5:6">
-      <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
     </row>
     <row r="330" spans="5:6">
-      <c r="E330" s="9"/>
-      <c r="F330" s="9"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
     </row>
     <row r="331" spans="5:6">
-      <c r="E331" s="9"/>
-      <c r="F331" s="9"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
     </row>
     <row r="332" spans="5:6">
-      <c r="E332" s="9"/>
-      <c r="F332" s="9"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
     </row>
     <row r="333" spans="5:6">
-      <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
     </row>
     <row r="334" spans="5:6">
-      <c r="E334" s="9"/>
-      <c r="F334" s="9"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
     </row>
     <row r="335" spans="5:6">
-      <c r="E335" s="9"/>
-      <c r="F335" s="9"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
     </row>
     <row r="336" spans="5:6">
-      <c r="E336" s="9"/>
-      <c r="F336" s="9"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
     </row>
     <row r="337" spans="5:6">
-      <c r="E337" s="9"/>
-      <c r="F337" s="9"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
     </row>
     <row r="338" spans="5:6">
-      <c r="E338" s="9"/>
-      <c r="F338" s="9"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
     </row>
     <row r="339" spans="5:6">
-      <c r="E339" s="9"/>
-      <c r="F339" s="9"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
     </row>
     <row r="340" spans="5:6">
-      <c r="E340" s="9"/>
-      <c r="F340" s="9"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
     </row>
     <row r="341" spans="5:6">
-      <c r="E341" s="9"/>
-      <c r="F341" s="9"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
     </row>
     <row r="342" spans="5:6">
-      <c r="E342" s="9"/>
-      <c r="F342" s="9"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
     </row>
     <row r="343" spans="5:6">
-      <c r="E343" s="9"/>
-      <c r="F343" s="9"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
     </row>
     <row r="344" spans="5:6">
-      <c r="E344" s="9"/>
-      <c r="F344" s="9"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
     </row>
     <row r="345" spans="5:6">
-      <c r="E345" s="9"/>
-      <c r="F345" s="9"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
     </row>
     <row r="346" spans="5:6">
-      <c r="E346" s="9"/>
-      <c r="F346" s="9"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
     </row>
     <row r="347" spans="5:6">
-      <c r="E347" s="9"/>
-      <c r="F347" s="9"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
     </row>
     <row r="348" spans="5:6">
-      <c r="E348" s="9"/>
-      <c r="F348" s="9"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
     </row>
     <row r="349" spans="5:6">
-      <c r="E349" s="9"/>
-      <c r="F349" s="9"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
     </row>
     <row r="350" spans="5:6">
-      <c r="E350" s="9"/>
-      <c r="F350" s="9"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
     </row>
     <row r="351" spans="5:6">
-      <c r="E351" s="9"/>
-      <c r="F351" s="9"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
     </row>
     <row r="352" spans="5:6">
-      <c r="E352" s="9"/>
-      <c r="F352" s="9"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="4"/>
     </row>
     <row r="353" spans="5:6">
-      <c r="E353" s="9"/>
-      <c r="F353" s="9"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
     </row>
     <row r="354" spans="5:6">
-      <c r="E354" s="9"/>
-      <c r="F354" s="9"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
     </row>
     <row r="355" spans="5:6">
-      <c r="E355" s="9"/>
-      <c r="F355" s="9"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
     </row>
     <row r="356" spans="5:6">
-      <c r="E356" s="9"/>
-      <c r="F356" s="9"/>
+      <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
     </row>
     <row r="357" spans="5:6">
-      <c r="E357" s="9"/>
-      <c r="F357" s="9"/>
+      <c r="E357" s="4"/>
+      <c r="F357" s="4"/>
     </row>
     <row r="358" spans="5:6">
-      <c r="E358" s="9"/>
-      <c r="F358" s="9"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
     </row>
     <row r="359" spans="5:6">
-      <c r="E359" s="9"/>
-      <c r="F359" s="9"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="4"/>
     </row>
     <row r="360" spans="5:6">
-      <c r="E360" s="9"/>
-      <c r="F360" s="9"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="4"/>
     </row>
     <row r="361" spans="5:6">
-      <c r="E361" s="9"/>
-      <c r="F361" s="9"/>
+      <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
     </row>
     <row r="362" spans="5:6">
-      <c r="E362" s="9"/>
-      <c r="F362" s="9"/>
+      <c r="E362" s="4"/>
+      <c r="F362" s="4"/>
     </row>
     <row r="363" spans="5:6">
-      <c r="E363" s="9"/>
-      <c r="F363" s="9"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="4"/>
     </row>
     <row r="364" spans="5:6">
-      <c r="E364" s="9"/>
-      <c r="F364" s="9"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
     </row>
     <row r="365" spans="5:6">
-      <c r="E365" s="9"/>
-      <c r="F365" s="9"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
     </row>
     <row r="366" spans="5:6">
-      <c r="E366" s="9"/>
-      <c r="F366" s="9"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
     </row>
     <row r="367" spans="5:6">
-      <c r="E367" s="9"/>
-      <c r="F367" s="9"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
     </row>
     <row r="368" spans="5:6">
-      <c r="E368" s="9"/>
-      <c r="F368" s="9"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
     </row>
     <row r="369" spans="5:6">
-      <c r="E369" s="9"/>
-      <c r="F369" s="9"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
     </row>
     <row r="370" spans="5:6">
-      <c r="E370" s="9"/>
-      <c r="F370" s="9"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="4"/>
     </row>
     <row r="371" spans="5:6">
-      <c r="E371" s="9"/>
-      <c r="F371" s="9"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="4"/>
     </row>
     <row r="372" spans="5:6">
-      <c r="E372" s="9"/>
-      <c r="F372" s="9"/>
+      <c r="E372" s="4"/>
+      <c r="F372" s="4"/>
     </row>
     <row r="373" spans="5:6">
-      <c r="E373" s="9"/>
-      <c r="F373" s="9"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
     </row>
     <row r="374" spans="5:6">
-      <c r="E374" s="9"/>
-      <c r="F374" s="9"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
     </row>
     <row r="375" spans="5:6">
-      <c r="E375" s="9"/>
-      <c r="F375" s="9"/>
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
     </row>
     <row r="376" spans="5:6">
-      <c r="E376" s="9"/>
-      <c r="F376" s="9"/>
+      <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
     </row>
     <row r="377" spans="5:6">
-      <c r="E377" s="9"/>
-      <c r="F377" s="9"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
     </row>
     <row r="378" spans="5:6">
-      <c r="E378" s="9"/>
-      <c r="F378" s="9"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
     </row>
     <row r="379" spans="5:6">
-      <c r="E379" s="9"/>
-      <c r="F379" s="9"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
     </row>
     <row r="380" spans="5:6">
-      <c r="E380" s="9"/>
-      <c r="F380" s="9"/>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
     </row>
     <row r="381" spans="5:6">
-      <c r="E381" s="9"/>
-      <c r="F381" s="9"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
     </row>
     <row r="382" spans="5:6">
-      <c r="E382" s="9"/>
-      <c r="F382" s="9"/>
+      <c r="E382" s="4"/>
+      <c r="F382" s="4"/>
     </row>
     <row r="383" spans="5:6">
-      <c r="E383" s="9"/>
-      <c r="F383" s="9"/>
+      <c r="E383" s="4"/>
+      <c r="F383" s="4"/>
     </row>
     <row r="384" spans="5:6">
-      <c r="E384" s="9"/>
-      <c r="F384" s="9"/>
+      <c r="E384" s="4"/>
+      <c r="F384" s="4"/>
     </row>
     <row r="385" spans="5:6">
-      <c r="E385" s="9"/>
-      <c r="F385" s="9"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4"/>
     </row>
     <row r="386" spans="5:6">
-      <c r="E386" s="9"/>
-      <c r="F386" s="9"/>
+      <c r="E386" s="4"/>
+      <c r="F386" s="4"/>
     </row>
     <row r="387" spans="5:6">
-      <c r="E387" s="9"/>
-      <c r="F387" s="9"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
     </row>
     <row r="388" spans="5:6">
-      <c r="E388" s="9"/>
-      <c r="F388" s="9"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
     </row>
     <row r="389" spans="5:6">
-      <c r="E389" s="9"/>
-      <c r="F389" s="9"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
     </row>
     <row r="390" spans="5:6">
-      <c r="E390" s="9"/>
-      <c r="F390" s="9"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
     </row>
     <row r="391" spans="5:6">
-      <c r="E391" s="9"/>
-      <c r="F391" s="9"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
     </row>
     <row r="392" spans="5:6">
-      <c r="E392" s="9"/>
-      <c r="F392" s="9"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
     </row>
     <row r="393" spans="5:6">
-      <c r="E393" s="9"/>
-      <c r="F393" s="9"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
     </row>
     <row r="394" spans="5:6">
-      <c r="E394" s="9"/>
-      <c r="F394" s="9"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
     </row>
     <row r="395" spans="5:6">
-      <c r="E395" s="9"/>
-      <c r="F395" s="9"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
     </row>
     <row r="396" spans="5:6">
-      <c r="E396" s="9"/>
-      <c r="F396" s="9"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
     </row>
     <row r="397" spans="5:6">
-      <c r="E397" s="9"/>
-      <c r="F397" s="9"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
     </row>
     <row r="398" spans="5:6">
-      <c r="E398" s="9"/>
-      <c r="F398" s="9"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
     </row>
     <row r="399" spans="5:6">
-      <c r="E399" s="9"/>
-      <c r="F399" s="9"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
     </row>
     <row r="400" spans="5:6">
-      <c r="E400" s="9"/>
-      <c r="F400" s="9"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
     </row>
     <row r="401" spans="5:6">
-      <c r="E401" s="9"/>
-      <c r="F401" s="9"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
     </row>
     <row r="402" spans="5:6">
-      <c r="E402" s="9"/>
-      <c r="F402" s="9"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
     </row>
     <row r="403" spans="5:6">
-      <c r="E403" s="9"/>
-      <c r="F403" s="9"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
     </row>
     <row r="404" spans="5:6">
-      <c r="E404" s="9"/>
-      <c r="F404" s="9"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
     </row>
     <row r="405" spans="5:6">
-      <c r="E405" s="9"/>
-      <c r="F405" s="9"/>
+      <c r="E405" s="4"/>
+      <c r="F405" s="4"/>
     </row>
     <row r="406" spans="5:6">
-      <c r="E406" s="9"/>
-      <c r="F406" s="9"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4"/>
     </row>
     <row r="407" spans="5:6">
-      <c r="E407" s="9"/>
-      <c r="F407" s="9"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
     </row>
     <row r="408" spans="5:6">
-      <c r="E408" s="9"/>
-      <c r="F408" s="9"/>
+      <c r="E408" s="4"/>
+      <c r="F408" s="4"/>
     </row>
     <row r="409" spans="5:6">
-      <c r="E409" s="9"/>
-      <c r="F409" s="9"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
     </row>
     <row r="410" spans="5:6">
-      <c r="E410" s="9"/>
-      <c r="F410" s="9"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
     </row>
     <row r="411" spans="5:6">
-      <c r="E411" s="9"/>
-      <c r="F411" s="9"/>
+      <c r="E411" s="4"/>
+      <c r="F411" s="4"/>
     </row>
     <row r="412" spans="5:6">
-      <c r="E412" s="9"/>
-      <c r="F412" s="9"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
     </row>
     <row r="413" spans="5:6">
-      <c r="E413" s="9"/>
-      <c r="F413" s="9"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
     </row>
     <row r="414" spans="5:6">
-      <c r="E414" s="9"/>
-      <c r="F414" s="9"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
     </row>
     <row r="415" spans="5:6">
-      <c r="E415" s="9"/>
-      <c r="F415" s="9"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
     </row>
     <row r="416" spans="5:6">
-      <c r="E416" s="9"/>
-      <c r="F416" s="9"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
     </row>
     <row r="417" spans="5:6">
-      <c r="E417" s="9"/>
-      <c r="F417" s="9"/>
+      <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
     </row>
     <row r="418" spans="5:6">
-      <c r="E418" s="9"/>
-      <c r="F418" s="9"/>
+      <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
     </row>
     <row r="419" spans="5:6">
-      <c r="E419" s="9"/>
-      <c r="F419" s="9"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4"/>
     </row>
     <row r="420" spans="5:6">
-      <c r="E420" s="9"/>
-      <c r="F420" s="9"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
     </row>
     <row r="421" spans="5:6">
-      <c r="E421" s="9"/>
-      <c r="F421" s="9"/>
+      <c r="E421" s="4"/>
+      <c r="F421" s="4"/>
     </row>
     <row r="422" spans="5:6">
-      <c r="E422" s="9"/>
-      <c r="F422" s="9"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="4"/>
     </row>
     <row r="423" spans="5:6">
-      <c r="E423" s="9"/>
-      <c r="F423" s="9"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
     </row>
     <row r="424" spans="5:6">
-      <c r="E424" s="9"/>
-      <c r="F424" s="9"/>
+      <c r="E424" s="4"/>
+      <c r="F424" s="4"/>
     </row>
     <row r="425" spans="5:6">
-      <c r="E425" s="9"/>
-      <c r="F425" s="9"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
     </row>
     <row r="426" spans="5:6">
-      <c r="E426" s="9"/>
-      <c r="F426" s="9"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
     </row>
     <row r="427" spans="5:6">
-      <c r="E427" s="9"/>
-      <c r="F427" s="9"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
     </row>
     <row r="428" spans="5:6">
-      <c r="E428" s="9"/>
-      <c r="F428" s="9"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
     </row>
     <row r="429" spans="5:6">
-      <c r="E429" s="9"/>
-      <c r="F429" s="9"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
     </row>
     <row r="430" spans="5:6">
-      <c r="E430" s="9"/>
-      <c r="F430" s="9"/>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
     </row>
     <row r="431" spans="5:6">
-      <c r="E431" s="9"/>
-      <c r="F431" s="9"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
     </row>
     <row r="432" spans="5:6">
-      <c r="E432" s="9"/>
-      <c r="F432" s="9"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
     </row>
     <row r="433" spans="5:6">
-      <c r="E433" s="9"/>
-      <c r="F433" s="9"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
     </row>
     <row r="434" spans="5:6">
-      <c r="E434" s="9"/>
-      <c r="F434" s="9"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
     </row>
     <row r="435" spans="5:6">
-      <c r="E435" s="9"/>
-      <c r="F435" s="9"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
     </row>
     <row r="436" spans="5:6">
-      <c r="E436" s="9"/>
-      <c r="F436" s="9"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
     </row>
     <row r="437" spans="5:6">
-      <c r="E437" s="9"/>
-      <c r="F437" s="9"/>
+      <c r="E437" s="4"/>
+      <c r="F437" s="4"/>
     </row>
     <row r="438" spans="5:6">
-      <c r="E438" s="9"/>
-      <c r="F438" s="9"/>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
     </row>
     <row r="439" spans="5:6">
-      <c r="E439" s="9"/>
-      <c r="F439" s="9"/>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
     </row>
     <row r="440" spans="5:6">
-      <c r="E440" s="9"/>
-      <c r="F440" s="9"/>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
     </row>
     <row r="441" spans="5:6">
-      <c r="E441" s="9"/>
-      <c r="F441" s="9"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
     </row>
     <row r="442" spans="5:6">
-      <c r="E442" s="9"/>
-      <c r="F442" s="9"/>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
     </row>
     <row r="443" spans="5:6">
-      <c r="E443" s="9"/>
-      <c r="F443" s="9"/>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
     </row>
     <row r="444" spans="5:6">
-      <c r="E444" s="9"/>
-      <c r="F444" s="9"/>
+      <c r="E444" s="4"/>
+      <c r="F444" s="4"/>
     </row>
     <row r="445" spans="5:6">
-      <c r="E445" s="9"/>
-      <c r="F445" s="9"/>
+      <c r="E445" s="4"/>
+      <c r="F445" s="4"/>
     </row>
     <row r="446" spans="5:6">
-      <c r="E446" s="9"/>
-      <c r="F446" s="9"/>
+      <c r="E446" s="4"/>
+      <c r="F446" s="4"/>
     </row>
     <row r="447" spans="5:6">
-      <c r="E447" s="9"/>
-      <c r="F447" s="9"/>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
     </row>
     <row r="448" spans="5:6">
-      <c r="E448" s="9"/>
-      <c r="F448" s="9"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
     </row>
     <row r="449" spans="5:6">
-      <c r="E449" s="9"/>
-      <c r="F449" s="9"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
     </row>
     <row r="450" spans="5:6">
-      <c r="E450" s="9"/>
-      <c r="F450" s="9"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
     </row>
     <row r="451" spans="5:6">
-      <c r="E451" s="9"/>
-      <c r="F451" s="9"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
     </row>
     <row r="452" spans="5:6">
-      <c r="E452" s="9"/>
-      <c r="F452" s="9"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
     </row>
     <row r="453" spans="5:6">
-      <c r="E453" s="9"/>
-      <c r="F453" s="9"/>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
     </row>
     <row r="454" spans="5:6">
-      <c r="E454" s="9"/>
-      <c r="F454" s="9"/>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
     </row>
     <row r="455" spans="5:6">
-      <c r="E455" s="9"/>
-      <c r="F455" s="9"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
     </row>
     <row r="456" spans="5:6">
-      <c r="E456" s="9"/>
-      <c r="F456" s="9"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
     </row>
     <row r="457" spans="5:6">
-      <c r="E457" s="9"/>
-      <c r="F457" s="9"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
     </row>
     <row r="458" spans="5:6">
-      <c r="E458" s="9"/>
-      <c r="F458" s="9"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
     </row>
     <row r="459" spans="5:6">
-      <c r="E459" s="9"/>
-      <c r="F459" s="9"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
     </row>
     <row r="460" spans="5:6">
-      <c r="E460" s="9"/>
-      <c r="F460" s="9"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
     </row>
     <row r="461" spans="5:6">
-      <c r="E461" s="9"/>
-      <c r="F461" s="9"/>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
     </row>
     <row r="462" spans="5:6">
-      <c r="E462" s="9"/>
-      <c r="F462" s="9"/>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
     </row>
     <row r="463" spans="5:6">
-      <c r="E463" s="9"/>
-      <c r="F463" s="9"/>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
     </row>
     <row r="464" spans="5:6">
-      <c r="E464" s="9"/>
-      <c r="F464" s="9"/>
+      <c r="E464" s="4"/>
+      <c r="F464" s="4"/>
     </row>
     <row r="465" spans="5:6">
-      <c r="E465" s="9"/>
-      <c r="F465" s="9"/>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
     </row>
     <row r="466" spans="5:6">
-      <c r="E466" s="9"/>
-      <c r="F466" s="9"/>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
     </row>
     <row r="467" spans="5:6">
-      <c r="E467" s="9"/>
-      <c r="F467" s="9"/>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
     </row>
     <row r="468" spans="5:6">
-      <c r="E468" s="9"/>
-      <c r="F468" s="9"/>
+      <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
     </row>
     <row r="469" spans="5:6">
-      <c r="E469" s="9"/>
-      <c r="F469" s="9"/>
+      <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
     </row>
     <row r="470" spans="5:6">
-      <c r="E470" s="9"/>
-      <c r="F470" s="9"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
     </row>
     <row r="471" spans="5:6">
-      <c r="E471" s="9"/>
-      <c r="F471" s="9"/>
+      <c r="E471" s="4"/>
+      <c r="F471" s="4"/>
     </row>
     <row r="472" spans="5:6">
-      <c r="E472" s="9"/>
-      <c r="F472" s="9"/>
+      <c r="E472" s="4"/>
+      <c r="F472" s="4"/>
     </row>
     <row r="473" spans="5:6">
-      <c r="E473" s="9"/>
-      <c r="F473" s="9"/>
+      <c r="E473" s="4"/>
+      <c r="F473" s="4"/>
     </row>
     <row r="474" spans="5:6">
-      <c r="E474" s="9"/>
-      <c r="F474" s="9"/>
+      <c r="E474" s="4"/>
+      <c r="F474" s="4"/>
     </row>
     <row r="475" spans="5:6">
-      <c r="E475" s="9"/>
-      <c r="F475" s="9"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
     </row>
     <row r="476" spans="5:6">
-      <c r="E476" s="9"/>
-      <c r="F476" s="9"/>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
     </row>
     <row r="477" spans="5:6">
-      <c r="E477" s="9"/>
-      <c r="F477" s="9"/>
+      <c r="E477" s="4"/>
+      <c r="F477" s="4"/>
     </row>
     <row r="478" spans="5:6">
-      <c r="E478" s="9"/>
-      <c r="F478" s="9"/>
+      <c r="E478" s="4"/>
+      <c r="F478" s="4"/>
     </row>
     <row r="479" spans="5:6">
-      <c r="E479" s="9"/>
-      <c r="F479" s="9"/>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
     </row>
     <row r="480" spans="5:6">
-      <c r="E480" s="9"/>
-      <c r="F480" s="9"/>
+      <c r="E480" s="4"/>
+      <c r="F480" s="4"/>
     </row>
     <row r="481" spans="5:6">
-      <c r="E481" s="9"/>
-      <c r="F481" s="9"/>
+      <c r="E481" s="4"/>
+      <c r="F481" s="4"/>
     </row>
     <row r="482" spans="5:6">
-      <c r="E482" s="9"/>
-      <c r="F482" s="9"/>
+      <c r="E482" s="4"/>
+      <c r="F482" s="4"/>
     </row>
     <row r="483" spans="5:6">
-      <c r="E483" s="9"/>
-      <c r="F483" s="9"/>
+      <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
     </row>
     <row r="484" spans="5:6">
-      <c r="E484" s="9"/>
-      <c r="F484" s="9"/>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
     </row>
     <row r="485" spans="5:6">
-      <c r="E485" s="9"/>
-      <c r="F485" s="9"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
     </row>
     <row r="486" spans="5:6">
-      <c r="E486" s="9"/>
-      <c r="F486" s="9"/>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
     </row>
     <row r="487" spans="5:6">
-      <c r="E487" s="9"/>
-      <c r="F487" s="9"/>
+      <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
     </row>
     <row r="488" spans="5:6">
-      <c r="E488" s="9"/>
-      <c r="F488" s="9"/>
+      <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
     </row>
     <row r="489" spans="5:6">
-      <c r="E489" s="9"/>
-      <c r="F489" s="9"/>
+      <c r="E489" s="4"/>
+      <c r="F489" s="4"/>
     </row>
     <row r="490" spans="5:6">
-      <c r="E490" s="9"/>
-      <c r="F490" s="9"/>
+      <c r="E490" s="4"/>
+      <c r="F490" s="4"/>
     </row>
     <row r="491" spans="5:6">
-      <c r="E491" s="9"/>
-      <c r="F491" s="9"/>
+      <c r="E491" s="4"/>
+      <c r="F491" s="4"/>
     </row>
     <row r="492" spans="5:6">
-      <c r="E492" s="9"/>
-      <c r="F492" s="9"/>
+      <c r="E492" s="4"/>
+      <c r="F492" s="4"/>
     </row>
     <row r="493" spans="5:6">
-      <c r="E493" s="9"/>
-      <c r="F493" s="9"/>
+      <c r="E493" s="4"/>
+      <c r="F493" s="4"/>
     </row>
     <row r="494" spans="5:6">
-      <c r="E494" s="9"/>
-      <c r="F494" s="9"/>
+      <c r="E494" s="4"/>
+      <c r="F494" s="4"/>
     </row>
     <row r="495" spans="5:6">
-      <c r="E495" s="9"/>
-      <c r="F495" s="9"/>
+      <c r="E495" s="4"/>
+      <c r="F495" s="4"/>
     </row>
     <row r="496" spans="5:6">
-      <c r="E496" s="9"/>
-      <c r="F496" s="9"/>
+      <c r="E496" s="4"/>
+      <c r="F496" s="4"/>
     </row>
     <row r="497" spans="5:6">
-      <c r="E497" s="9"/>
-      <c r="F497" s="9"/>
+      <c r="E497" s="4"/>
+      <c r="F497" s="4"/>
     </row>
     <row r="498" spans="5:6">
-      <c r="E498" s="9"/>
-      <c r="F498" s="9"/>
+      <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
     </row>
     <row r="499" spans="5:6">
-      <c r="E499" s="9"/>
-      <c r="F499" s="9"/>
+      <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
     </row>
     <row r="500" spans="5:6">
-      <c r="E500" s="9"/>
-      <c r="F500" s="9"/>
+      <c r="E500" s="4"/>
+      <c r="F500" s="4"/>
     </row>
     <row r="501" spans="5:6">
-      <c r="E501" s="9"/>
-      <c r="F501" s="9"/>
+      <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
     </row>
     <row r="502" spans="5:6">
-      <c r="E502" s="9"/>
-      <c r="F502" s="9"/>
+      <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
     </row>
     <row r="503" spans="5:6">
-      <c r="E503" s="9"/>
-      <c r="F503" s="9"/>
+      <c r="E503" s="4"/>
+      <c r="F503" s="4"/>
     </row>
     <row r="504" spans="5:6">
-      <c r="E504" s="9"/>
-      <c r="F504" s="9"/>
+      <c r="E504" s="4"/>
+      <c r="F504" s="4"/>
     </row>
     <row r="505" spans="5:6">
-      <c r="E505" s="9"/>
-      <c r="F505" s="9"/>
+      <c r="E505" s="4"/>
+      <c r="F505" s="4"/>
     </row>
     <row r="506" spans="5:6">
-      <c r="E506" s="9"/>
-      <c r="F506" s="9"/>
+      <c r="E506" s="4"/>
+      <c r="F506" s="4"/>
     </row>
     <row r="507" spans="5:6">
-      <c r="E507" s="9"/>
-      <c r="F507" s="9"/>
+      <c r="E507" s="4"/>
+      <c r="F507" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
